--- a/documentation/H17_S17_Basic_Strategy.xlsx
+++ b/documentation/H17_S17_Basic_Strategy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tpqui\Documents\Projects\Blackjack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tpqui\Documents\Projects\blackjack\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,6 @@
     <sheet name="4-8 Decks, Hit Soft 17" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="17">
   <si>
     <t>J</t>
   </si>
@@ -145,6 +144,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -154,17 +159,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -232,174 +231,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -693,11 +524,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J14" sqref="J14"/>
+      <selection pane="topRight" activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -706,27 +537,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A2" s="7"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="3">
         <v>2</v>
       </c>
@@ -1624,27 +1455,27 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A24" s="8"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="3">
         <v>2</v>
       </c>
@@ -1686,46 +1517,46 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A25" s="10">
+      <c r="A25" s="7">
         <v>12</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="N25" s="9" t="s">
+      <c r="B25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2132,27 +1963,27 @@
       <c r="A36" s="4"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A38" s="8"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="3">
         <v>2</v>
       </c>
@@ -2591,177 +2422,45 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A49" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A50" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N51" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2774,7 +2473,7 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="B37:N37"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:N20 B26:N34 B39:N51">
+  <conditionalFormatting sqref="B3:N20 B26:N34 B39:N48">
     <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -2787,7 +2486,7 @@
       <formula>"Ds"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:N51">
+  <conditionalFormatting sqref="B39:N48">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Ph"</formula>
     </cfRule>
@@ -2795,7 +2494,7 @@
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:N34 B39:N51 B3:N20">
+  <conditionalFormatting sqref="B25:N34 B3:N20 B39:N48">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"H"</formula>
     </cfRule>
@@ -2807,11 +2506,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I14" sqref="I14"/>
+      <selection pane="topRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2820,27 +2519,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="8"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="3">
         <v>2</v>
       </c>
@@ -3674,27 +3373,27 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A24" s="8"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="3">
         <v>2</v>
       </c>
@@ -3736,46 +3435,46 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A25" s="10">
+      <c r="A25" s="7">
         <v>12</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="N25" s="9" t="s">
+      <c r="B25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4176,27 +3875,27 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A38" s="8"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="3">
         <v>2</v>
       </c>
@@ -4635,177 +4334,45 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A49" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A50" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N51" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4818,7 +4385,7 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="B37:N37"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:N20 B26:N34 B39:N51">
+  <conditionalFormatting sqref="B3:N20 B26:N34 B39:N48">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Dh"</formula>
     </cfRule>
@@ -4831,7 +4398,7 @@
       <formula>"Ds"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:N51">
+  <conditionalFormatting sqref="B39:N48">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Ph"</formula>
     </cfRule>
@@ -4839,7 +4406,7 @@
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:N34 B39:N51 B3:N20">
+  <conditionalFormatting sqref="B25:N34 B3:N20 B39:N48">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"H"</formula>
     </cfRule>

--- a/documentation/H17_S17_Basic_Strategy.xlsx
+++ b/documentation/H17_S17_Basic_Strategy.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="17">
   <si>
     <t>J</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Player Soft Total</t>
-  </si>
-  <si>
-    <t>Splits</t>
   </si>
   <si>
     <t>H</t>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Rs</t>
+  </si>
+  <si>
+    <t>Pair Splitting</t>
   </si>
 </sst>
 </file>
@@ -131,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,12 +143,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -524,11 +518,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S14" sqref="S14"/>
+      <selection pane="topRight" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -537,27 +531,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A2" s="9"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="3">
         <v>2</v>
       </c>
@@ -603,43 +597,43 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -651,43 +645,43 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -699,43 +693,43 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -747,43 +741,43 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -795,43 +789,43 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -843,43 +837,43 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -891,43 +885,43 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -939,43 +933,43 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -987,43 +981,43 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1035,43 +1029,43 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1083,43 +1077,43 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1131,43 +1125,43 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="N14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1179,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="N15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1227,43 +1221,43 @@
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1275,43 +1269,43 @@
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1323,43 +1317,43 @@
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1371,43 +1365,43 @@
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.45">
@@ -1415,67 +1409,67 @@
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A24" s="10"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="3">
         <v>2</v>
       </c>
@@ -1517,569 +1511,569 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A25" s="7">
-        <v>12</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>8</v>
+      <c r="A25" s="2">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A34" s="2">
-        <v>21</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A34" s="4"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" s="4"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A36" s="4"/>
+      <c r="A36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A37" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="8" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="3">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3">
         <v>4</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
+      <c r="E37" s="3">
+        <v>5</v>
+      </c>
+      <c r="F37" s="3">
+        <v>6</v>
+      </c>
+      <c r="G37" s="3">
+        <v>7</v>
+      </c>
+      <c r="H37" s="3">
+        <v>8</v>
+      </c>
+      <c r="I37" s="3">
+        <v>9</v>
+      </c>
+      <c r="J37" s="3">
+        <v>10</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A38" s="10"/>
-      <c r="B38" s="3">
+      <c r="A38" s="5">
         <v>2</v>
       </c>
-      <c r="C38" s="3">
-        <v>3</v>
-      </c>
-      <c r="D38" s="3">
-        <v>4</v>
-      </c>
-      <c r="E38" s="3">
-        <v>5</v>
-      </c>
-      <c r="F38" s="3">
-        <v>6</v>
-      </c>
-      <c r="G38" s="3">
-        <v>7</v>
-      </c>
-      <c r="H38" s="3">
-        <v>8</v>
-      </c>
-      <c r="I38" s="3">
-        <v>9</v>
-      </c>
-      <c r="J38" s="3">
-        <v>10</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>3</v>
+      <c r="B38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>13</v>
@@ -2088,33 +2082,33 @@
         <v>13</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>8</v>
@@ -2126,10 +2120,10 @@
         <v>8</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>8</v>
@@ -2141,327 +2135,283 @@
         <v>8</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A44" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A47" s="5">
-        <v>10</v>
+      <c r="A47" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2470,10 +2420,10 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:N23"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:N37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:N36"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:N20 B26:N34 B39:N48">
+  <conditionalFormatting sqref="B3:N20 B25:N33 B38:N47">
     <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -2481,12 +2431,12 @@
       <formula>"Dh"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:N34">
+  <conditionalFormatting sqref="B25:N33">
     <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Ds"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:N48">
+  <conditionalFormatting sqref="B38:N47">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Ph"</formula>
     </cfRule>
@@ -2494,7 +2444,7 @@
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:N34 B3:N20 B39:N48">
+  <conditionalFormatting sqref="B3:N20 B38:N47 B25:N33">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"H"</formula>
     </cfRule>
@@ -2506,11 +2456,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G40" sqref="G40"/>
+      <selection pane="topRight" activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2519,27 +2469,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="10"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="3">
         <v>2</v>
       </c>
@@ -2585,43 +2535,43 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -2629,43 +2579,43 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
@@ -2673,43 +2623,43 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
@@ -2717,43 +2667,43 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
@@ -2761,43 +2711,43 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
@@ -2805,43 +2755,43 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
@@ -2849,43 +2799,43 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
@@ -2893,43 +2843,43 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
@@ -2937,43 +2887,43 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
@@ -2981,43 +2931,43 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
@@ -3025,43 +2975,43 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
@@ -3069,43 +3019,43 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
@@ -3113,43 +3063,43 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="N15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
@@ -3157,43 +3107,43 @@
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.45">
@@ -3201,43 +3151,43 @@
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.45">
@@ -3245,43 +3195,43 @@
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.45">
@@ -3289,43 +3239,43 @@
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.45">
@@ -3333,67 +3283,67 @@
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A24" s="10"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="3">
         <v>2</v>
       </c>
@@ -3435,563 +3385,563 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A25" s="7">
-        <v>12</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>8</v>
+      <c r="A25" s="5">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A37" s="8"/>
+      <c r="B37" s="3">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3">
+        <v>4</v>
+      </c>
+      <c r="E37" s="3">
+        <v>5</v>
+      </c>
+      <c r="F37" s="3">
+        <v>6</v>
+      </c>
+      <c r="G37" s="3">
+        <v>7</v>
+      </c>
+      <c r="H37" s="3">
+        <v>8</v>
+      </c>
+      <c r="I37" s="3">
+        <v>9</v>
+      </c>
+      <c r="J37" s="3">
         <v>10</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A34" s="5">
-        <v>21</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A37" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
+      <c r="K37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A38" s="10"/>
-      <c r="B38" s="3">
+      <c r="A38" s="2">
         <v>2</v>
       </c>
-      <c r="C38" s="3">
-        <v>3</v>
-      </c>
-      <c r="D38" s="3">
-        <v>4</v>
-      </c>
-      <c r="E38" s="3">
-        <v>5</v>
-      </c>
-      <c r="F38" s="3">
-        <v>6</v>
-      </c>
-      <c r="G38" s="3">
-        <v>7</v>
-      </c>
-      <c r="H38" s="3">
-        <v>8</v>
-      </c>
-      <c r="I38" s="3">
-        <v>9</v>
-      </c>
-      <c r="J38" s="3">
-        <v>10</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>3</v>
+      <c r="B38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>13</v>
@@ -4000,33 +3950,33 @@
         <v>13</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>8</v>
@@ -4038,10 +3988,10 @@
         <v>8</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>8</v>
@@ -4053,327 +4003,283 @@
         <v>8</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A47" s="2">
-        <v>10</v>
+      <c r="A47" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4382,10 +4288,10 @@
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:N23"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:N37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:N36"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:N20 B26:N34 B39:N48">
+  <conditionalFormatting sqref="B3:N20 B25:N33 B38:N47">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Dh"</formula>
     </cfRule>
@@ -4393,12 +4299,12 @@
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:N34">
+  <conditionalFormatting sqref="B25:N33">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Ds"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:N48">
+  <conditionalFormatting sqref="B38:N47">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Ph"</formula>
     </cfRule>
@@ -4406,7 +4312,7 @@
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:N34 B3:N20 B39:N48">
+  <conditionalFormatting sqref="B3:N20 B38:N47 B25:N33">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"H"</formula>
     </cfRule>
